--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_26.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_26.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0713348388671875</v>
+        <v>0.0007290840148925781</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009081363677978516</v>
+        <v>0.0006520748138427734</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003196954727172852</v>
+        <v>0.02365732192993164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 2), (4, 4), (3, 5), (3, 3), (3, 1), (3, 0), (3, 2), (3, 4), (2, 5), (2, 3), (2, 1), (2, 0), (2, 2), (2, 4), (1, 5), (1, 3), (1, 1), (1, 0), (1, 2), (1, 4), (0, 5), (0, 4), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[4, 2], [4, 4], [3, 5], [3, 3], [3, 1], [3, 0], [3, 2], [3, 4], [2, 5], [2, 3], [2, 1], [2, 0], [2, 2], [2, 4], [1, 5], [1, 3], [1, 1], [1, 0], [1, 2], [1, 4], [0, 5], [0, 4], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,6 @@
           <t>[25, 24]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[8, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -525,11 +520,6 @@
           <t>[24, 23]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[2, 1]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -544,11 +534,6 @@
           <t>[24, 25]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[7, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -563,11 +548,6 @@
           <t>[23, 24]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[1, 2]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -575,11 +555,6 @@
           <t>[21, 20]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[5, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -615,11 +590,6 @@
           <t>[20, 21]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[4, 5]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -764,214 +734,266 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[9, 10]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[6, 7]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[7, 8]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[5, 6]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[6, 7]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.7781990354900259</v>
+          <t>[2, 1]</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>218.8</v>
+          <t>[3, 4]</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
+          <t>[1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>44</v>
+          <t>[2, 3]</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
+          <t>[1, 2]</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.08284592628479004</v>
+          <t>[0, 1]</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7781828491184266</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.03815793991088867</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
